--- a/报销/2018_11_28/实验报销明细.xlsx
+++ b/报销/2018_11_28/实验报销明细.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF67920-81B8-4DD4-9B93-01E41FCE8D7B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3B8321-0756-42DF-9C78-7A034F821F42}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>测试时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,86 @@
   </si>
   <si>
     <t>epma的只要把第二次实验的发票拍照发过去就行了，费用是已经交过的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用(120元/h)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘二举</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.03.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.03.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万政委</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.10.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.10.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.04.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014.12.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013.08.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张近生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾婷茹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄菲菲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥林巴斯共聚焦测试费用明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,12 +208,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -141,6 +218,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -434,117 +517,366 @@
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="7" max="8" width="11.875" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
+    <col min="11" max="11" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>2018.09</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3">
+        <f>120*J3</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>2018.04</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>7</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>210</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" ref="K4:K17" si="0">120*J4</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>2016.06</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>6</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>180</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="4" t="s">
+      <c r="G6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>15</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="3">
+        <f>SUM(J3:J6,J8,J10:J12,J14,J16)</f>
+        <v>22</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="0"/>
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="18" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="I18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="1">
+        <v>20</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2400</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
